--- a/templates/template.xlsx
+++ b/templates/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code_Projects\ContentTables\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4350CCE-4418-4EDB-898A-70B7081CEC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DCBA5-5CCD-4F39-85B4-0402C6B7E0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5295" windowWidth="29040" windowHeight="15840" xr2:uid="{83951B85-16D7-466C-85D6-4B8400F8E497}"/>
   </bookViews>
@@ -38,18 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t xml:space="preserve"> / General Contractor:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Inwestor / Investor:  </t>
   </si>
   <si>
     <t>/ Subcontractor</t>
   </si>
   <si>
-    <t>HANDOVER DOCUMENTATION</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -71,9 +65,6 @@
     <t xml:space="preserve">       country</t>
   </si>
   <si>
-    <t xml:space="preserve">       EMC NAME</t>
-  </si>
-  <si>
     <t xml:space="preserve">        street</t>
   </si>
   <si>
@@ -84,6 +75,15 @@
   </si>
   <si>
     <t>Content of Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> / Contractor:</t>
+  </si>
+  <si>
+    <t>DOCUMENTATION</t>
   </si>
 </sst>
 </file>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14E05C9-BE3E-42AE-A731-E1A32406DFD5}">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,7 +714,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="37.5">
       <c r="A1" s="23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -733,7 +733,7 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -741,7 +741,7 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -749,7 +749,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -757,7 +757,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -765,7 +765,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -785,7 +785,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -793,7 +793,7 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="1"/>
@@ -801,7 +801,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -809,7 +809,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -817,7 +817,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -837,7 +837,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -906,7 +906,7 @@
     </row>
     <row r="24" spans="1:15" ht="31.5" customHeight="1" thickBot="1">
       <c r="A24" s="26" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
@@ -931,14 +931,14 @@
     </row>
     <row r="26" spans="1:15" ht="20.25" thickBot="1">
       <c r="A26" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" s="22"/>
       <c r="D26" s="13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
